--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>873190.9661587963</v>
+        <v>872665.7837897643</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916858</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7534044.430687119</v>
+        <v>7534044.43068712</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>244.4659643936636</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.0816929420097</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>170.9231059295766</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>172.0647531850085</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>327.5433076271206</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>361.2327922018833</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>40.71051492868949</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>250.6923925354393</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,10 +1135,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>165.0699612865397</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1147,7 +1147,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>77.57375733265805</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>141.3509401177971</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>41.94061297377375</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>32.98066327132969</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482697</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317943</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527497</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>20.56754178381327</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889634</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>236.0263989200893</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>86.27769679771714</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>85.55329631630661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701016261</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>75.86622810093434</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3903,13 +3903,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3752975271662</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>85.55329631630661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>102.2146311366277</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>946.8034234626114</v>
+        <v>400.4118020839786</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>366.3097333078059</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>334.4403525226545</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>304.7060117213537</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>280.8789861709655</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>280.8789861709655</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>830.9570922288289</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.102993947519</v>
+        <v>422.6709685284823</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1503.116006836722</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1216.160498707152</v>
       </c>
       <c r="W4" t="n">
-        <v>1523.380649085459</v>
+        <v>1216.160498707152</v>
       </c>
       <c r="X4" t="n">
-        <v>1277.988894418872</v>
+        <v>1216.160498707152</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2799230991774</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
         <v>104.410542314026</v>
@@ -4573,13 +4573,13 @@
         <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
         <v>1181.865694717422</v>
@@ -4594,19 +4594,19 @@
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407678</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.150553521698</v>
+        <v>1773.889698385739</v>
       </c>
       <c r="X5" t="n">
         <v>1409.008090101009</v>
@@ -4649,22 +4649,22 @@
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>972.398585929168</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>972.398585929168</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>972.398585929168</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1030.710105142934</v>
+        <v>864.1235439377899</v>
       </c>
       <c r="C7" t="n">
-        <v>858.1483936261594</v>
+        <v>691.5618324210149</v>
       </c>
       <c r="D7" t="n">
-        <v>692.2704008276821</v>
+        <v>525.6838396225376</v>
       </c>
       <c r="E7" t="n">
-        <v>522.5123970784193</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="F7" t="n">
-        <v>345.8053430401756</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>180.2140680660032</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
         <v>50.43238658947704</v>
@@ -4728,10 +4728,10 @@
         <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
         <v>1143.991608255752</v>
@@ -4752,25 +4752,25 @@
         <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179224</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2254.322061757679</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="U7" t="n">
-        <v>2254.322061757679</v>
+        <v>2087.735500552534</v>
       </c>
       <c r="V7" t="n">
-        <v>1967.366553628109</v>
+        <v>1800.779992422965</v>
       </c>
       <c r="W7" t="n">
-        <v>1695.340149214401</v>
+        <v>1528.753588009256</v>
       </c>
       <c r="X7" t="n">
-        <v>1449.948394547813</v>
+        <v>1283.361833342669</v>
       </c>
       <c r="Y7" t="n">
-        <v>1222.528723861922</v>
+        <v>1055.942162656777</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.829461272046</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.727392495873</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4804,19 +4804,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.08862771655</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4989,22 +4989,22 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
         <v>1324.277995859497</v>
@@ -5047,10 +5047,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5074,16 +5074,16 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136696</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>496.4142387799021</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,7 +5287,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5357,22 +5357,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5475,13 +5475,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3205.876241053795</v>
+        <v>790.3368563937677</v>
       </c>
       <c r="C19" t="n">
-        <v>3033.31452953702</v>
+        <v>617.7751448769926</v>
       </c>
       <c r="D19" t="n">
-        <v>2867.436536738543</v>
+        <v>617.7751448769926</v>
       </c>
       <c r="E19" t="n">
-        <v>2697.67853298928</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>2520.971478951036</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4142.53268953897</v>
+        <v>1726.993304878943</v>
       </c>
       <c r="W19" t="n">
-        <v>3870.506285125261</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X19" t="n">
-        <v>3625.114530458674</v>
+        <v>1209.575145798647</v>
       </c>
       <c r="Y19" t="n">
-        <v>3397.694859772782</v>
+        <v>982.1554751127549</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367833</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.557290287537</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601645</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="26">
@@ -6235,16 +6235,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1039.174348374283</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C34" t="n">
-        <v>866.6126368575082</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D34" t="n">
-        <v>700.7346440590309</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E34" t="n">
-        <v>530.9766403097681</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>354.2695862715243</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>188.678311297352</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6894,16 +6894,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y34" t="n">
-        <v>1230.99296709327</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2412.031452783383</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993933</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7350,7 +7350,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
         <v>2718.920450173583</v>
@@ -7368,16 +7368,16 @@
         <v>2194.608003005143</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157614</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.929463568621</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779172</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785925</v>
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
         <v>496.4142387799021</v>
@@ -7608,13 +7608,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7651,28 +7651,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1039.174348374283</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>866.6126368575082</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>700.7346440590309</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>530.9766403097681</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>354.2695862715243</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>188.678311297352</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7848,10 +7848,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8221,7 +8221,7 @@
         <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -8297,25 +8297,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,13 +8376,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986979</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-4.950171672842526e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11077,10 +11077,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>935.0031416802861</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22.86827275269542</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>227.3655273957976</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.0797604404404</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>111.4236523045795</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>33.27974144948212</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>52.94985625022261</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>120.446375214268</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>208.2197249473395</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>26.709483593973</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9308428424052</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>52.94985625022261</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>140.723205983294</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660711.4487819001</v>
+        <v>660711.4487819003</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660711.4487819001</v>
+        <v>660711.4487819003</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660711.4487819001</v>
+        <v>660711.4487819002</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660711.4487819003</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232862</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="F2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="K2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="L2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="M2" t="n">
         <v>368800.3088961465</v>
-      </c>
-      <c r="K2" t="n">
-        <v>368800.3088961465</v>
-      </c>
-      <c r="L2" t="n">
-        <v>368800.3088961465</v>
-      </c>
-      <c r="M2" t="n">
-        <v>368800.3088961466</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961467</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909371</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44538.23090621537</v>
+        <v>-44538.23090621523</v>
       </c>
       <c r="C6" t="n">
-        <v>48794.64242933056</v>
+        <v>48794.64242933043</v>
       </c>
       <c r="D6" t="n">
-        <v>107047.0215382177</v>
+        <v>107047.0215382176</v>
       </c>
       <c r="E6" t="n">
-        <v>409.6432408415421</v>
+        <v>386.4189014587709</v>
       </c>
       <c r="F6" t="n">
-        <v>182764.7524618912</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="G6" t="n">
-        <v>182764.7524618913</v>
+        <v>182741.5281225085</v>
       </c>
       <c r="H6" t="n">
-        <v>182764.7524618913</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="I6" t="n">
-        <v>182764.7524618912</v>
+        <v>182741.5281225085</v>
       </c>
       <c r="J6" t="n">
-        <v>71750.2871169009</v>
+        <v>71727.06277751832</v>
       </c>
       <c r="K6" t="n">
-        <v>129718.8978231188</v>
+        <v>129695.6734837362</v>
       </c>
       <c r="L6" t="n">
-        <v>173372.4507352687</v>
+        <v>173349.2263958861</v>
       </c>
       <c r="M6" t="n">
-        <v>30564.58152390347</v>
+        <v>30541.3571845208</v>
       </c>
       <c r="N6" t="n">
-        <v>182764.7524618912</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="O6" t="n">
-        <v>182764.7524618912</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="P6" t="n">
-        <v>182764.7524618912</v>
+        <v>182741.5281225085</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>41.77288861755233</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.12156952133336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>104.7255648098491</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.24138718456288</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>73.26359241595645</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>53.71824658459906</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>97.79263763783973</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>24.95627820398644</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>268.6910868018712</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>326.6295051306851</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34941,7 +34941,7 @@
         <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -35017,25 +35017,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35096,13 +35096,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986979</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-8.053963279557705e-14</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37718,10 +37718,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.891691782158</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37797,10 +37797,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37861,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>935.0031416802861</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
